--- a/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
+++ b/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="155">
   <si>
     <t>ZibName</t>
   </si>
@@ -347,6 +347,9 @@
     <t>ZIB-1148</t>
   </si>
   <si>
+    <t>ZIB-1016</t>
+  </si>
+  <si>
     <t>ZIB-645</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
     <t>ZIB-880</t>
   </si>
   <si>
-    <t>ZIB-1016</t>
-  </si>
-  <si>
     <t>ZIB-901</t>
   </si>
   <si>
@@ -380,6 +380,9 @@
     <t>Tekstwijziging aan defintie concept</t>
   </si>
   <si>
+    <t>Kardinaliteit van het element Monsternummer gewijzigd van 0..* naar 0..1</t>
+  </si>
+  <si>
     <t>SNOMED CT DefintionCode concept aangepast</t>
   </si>
   <si>
@@ -389,9 +392,6 @@
     <t>Kleine Tekstwijzigingen omschrijving 'toelichting' bij monster in engels en Nederlands</t>
   </si>
   <si>
-    <t>Kardinaliteit van het element Monsternummer gewijzigd van 0..* naar 0..1</t>
-  </si>
-  <si>
     <t>Kleine tekstuele aanpassing in beschrijving bij microogranisme aan container monster.</t>
   </si>
   <si>
@@ -413,12 +413,12 @@
     <t>SIMPLE PATCH CHANGE</t>
   </si>
   <si>
+    <t>CARDINALITY CHANGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
   </si>
   <si>
-    <t>CARDINALITY CHANGE</t>
-  </si>
-  <si>
     <t>CHANGE TO SUB HCIM</t>
   </si>
   <si>
@@ -428,21 +428,21 @@
     <t>Low</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>valuesets 2017 -&gt; valueset 2020 regel</t>
   </si>
   <si>
+    <t>ZERO-TO-MANY TO ZERO-TO-ONE</t>
+  </si>
+  <si>
     <t>SCT DefintionCode  [blank] -&gt; [127454002 Device specimen]</t>
   </si>
   <si>
-    <t>ZERO-TO-MANY TO ZERO-TO-ONE</t>
-  </si>
-  <si>
     <t>codelist [MonsterAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.1--20200901000000)]</t>
   </si>
   <si>
@@ -458,10 +458,10 @@
     <t>SCT DefintionCode [blank] -&gt; [4028004 StrongKidsScore ZiekteBeeldScore]</t>
   </si>
   <si>
+    <t>ZERO-TO-ONE TO ZERO-TO-MANY</t>
+  </si>
+  <si>
     <t>SCT DefintionCode  [127454002 Device specimen] -&gt; [blank]</t>
-  </si>
-  <si>
-    <t>ZERO-TO-ONE TO ZERO-TO-MANY</t>
   </si>
   <si>
     <t>SCT DefintionCode [blank] -&gt; [4028008 StrongKidsScore VoedingstoestandScore]</t>
@@ -1116,7 +1116,7 @@
         <v>139</v>
       </c>
       <c r="N9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" t="s">
         <v>146</v>
@@ -1292,7 +1292,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -1300,8 +1300,26 @@
       <c r="G16" t="s">
         <v>64</v>
       </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1330,25 +1348,25 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1371,7 +1389,7 @@
         <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J18" t="s">
         <v>120</v>
@@ -1406,10 +1424,10 @@
         <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
         <v>131</v>
@@ -1441,10 +1459,10 @@
         <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s">
         <v>131</v>
@@ -1467,7 +1485,7 @@
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -1475,27 +1493,6 @@
       <c r="G21" t="s">
         <v>68</v>
       </c>
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" t="s">
-        <v>141</v>
-      </c>
-      <c r="N21" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
@@ -1619,10 +1616,10 @@
         <v>134</v>
       </c>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s">
         <v>149</v>
@@ -1686,13 +1683,13 @@
         <v>134</v>
       </c>
       <c r="L27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s">
         <v>142</v>
       </c>
       <c r="N27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O27" t="s">
         <v>150</v>
@@ -1724,22 +1721,22 @@
         <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
         <v>143</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O28" t="s">
         <v>151</v>
@@ -1780,13 +1777,13 @@
         <v>134</v>
       </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s">
         <v>144</v>
       </c>
       <c r="N29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O29" t="s">
         <v>152</v>
@@ -1835,22 +1832,22 @@
         <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s">
         <v>145</v>
       </c>
       <c r="N31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O31" t="s">
         <v>153</v>
@@ -2015,7 +2012,7 @@
         <v>136</v>
       </c>
       <c r="N37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O37" t="s">
         <v>154</v>

--- a/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
+++ b/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$37</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -547,7 +550,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -842,6 +874,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -2019,6 +2058,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O37"/>
+  <conditionalFormatting sqref="E2:E37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
+++ b/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789F786-B2CB-E945-B14F-E55998D5A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24820" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$37</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
   <si>
     <t>ZibName</t>
   </si>
@@ -337,10 +343,6 @@
     <t>Uitvoerder::Zorgaanbieder</t>
   </si>
   <si>
-    <t>TestCodeLOINCCodelijst
-TestCodeNHGCodelijst</t>
-  </si>
-  <si>
     <t>LocatieCodelijst</t>
   </si>
   <si>
@@ -407,9 +409,6 @@
     <t>Dataelement UitgevoerdDoor::Zorgaanbieder toe gevoegd.</t>
   </si>
   <si>
-    <t>NO CHANGE</t>
-  </si>
-  <si>
     <t>VALUESET CHANGES</t>
   </si>
   <si>
@@ -446,50 +445,44 @@
     <t>SCT DefintionCode  [blank] -&gt; [127454002 Device specimen]</t>
   </si>
   <si>
-    <t>codelist [MonsterAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.1--20200901000000)]</t>
-  </si>
-  <si>
     <t>SCT DefintionCode [118169006 Specimen source topography] -&gt; [405814001 Procedure site - Indirect]</t>
   </si>
   <si>
-    <t>codelist [LateraliteitCodelijst]-&gt;[LateraliteitCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.2--20200901000000)]</t>
-  </si>
-  <si>
     <t>SCT DefintionCode  [118170007 Specimen source identity] -&gt; [127454002 Device specimen]</t>
   </si>
   <si>
-    <t>SCT DefintionCode [blank] -&gt; [4028004 StrongKidsScore ZiekteBeeldScore]</t>
-  </si>
-  <si>
     <t>ZERO-TO-ONE TO ZERO-TO-MANY</t>
   </si>
   <si>
     <t>SCT DefintionCode  [127454002 Device specimen] -&gt; [blank]</t>
   </si>
   <si>
-    <t>SCT DefintionCode [blank] -&gt; [4028008 StrongKidsScore VoedingstoestandScore]</t>
-  </si>
-  <si>
-    <t>codelist [LocatieCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.1--20200901000000)]-&gt;[MonsterAnatomischeLocatieCodelijst]</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCT DefintionCode  [405814001 Procedure site - Indirect] -&gt; AnatomischeLocatie [118169006 Specimen source topography] </t>
   </si>
   <si>
-    <t>codelist [LateraliteitCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.2--20200901000000)]-&gt;[LateraliteitCodelijst]</t>
-  </si>
-  <si>
     <t>SCT DefintionCode  [127454002 Device specimen] -&gt; [118170007 Specimen source identity]</t>
   </si>
   <si>
     <t>IF [blank] source-&gt;target ELSE [toon en stuur de relatie tussen de labuitslag en UitgevoerdDoor::Zorgaanbieder naar een 2017 ontvanger. Maak eventueel een zorgaanbieder instance aan als deze nog niet bestaat ]</t>
+  </si>
+  <si>
+    <t>TestCodeLOINCCodelijst; TestCodeNHGCodelijst</t>
+  </si>
+  <si>
+    <t>codelist [MonsterAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst]</t>
+  </si>
+  <si>
+    <t>codelist [LocatieCodelijst]-&gt;[MonsterAnatomischeLocatieCodelijst]</t>
+  </si>
+  <si>
+    <t>codelist [LateraliteitCodelijst]-&gt;[LateraliteitCodelijst]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +547,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -568,26 +568,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +626,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -659,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -693,9 +695,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -868,21 +871,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -948,11 +953,8 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -971,11 +973,8 @@
       <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1000,11 +999,8 @@
       <c r="H4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1029,11 +1025,8 @@
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="K5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1052,11 +1045,8 @@
       <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1081,11 +1071,8 @@
       <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1110,11 +1097,8 @@
       <c r="H8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1124,9 +1108,6 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" t="s">
         <v>98</v>
       </c>
@@ -1137,31 +1118,28 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
         <v>136</v>
       </c>
-      <c r="M9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1171,6 +1149,9 @@
       <c r="C10" t="s">
         <v>58</v>
       </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -1183,11 +1164,8 @@
       <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="K10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1206,11 +1184,8 @@
       <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1229,11 +1204,8 @@
       <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1252,11 +1224,8 @@
       <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1275,11 +1244,8 @@
       <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1305,22 +1271,22 @@
         <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1340,28 +1306,28 @@
         <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1387,28 +1353,28 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1428,22 +1394,22 @@
         <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1463,22 +1429,22 @@
         <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1498,22 +1464,22 @@
         <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1558,11 +1524,8 @@
       <c r="H22" t="s">
         <v>90</v>
       </c>
-      <c r="K22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1581,11 +1544,8 @@
       <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="K23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1611,22 +1571,22 @@
         <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1646,25 +1606,22 @@
         <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N25" t="s">
-        <v>138</v>
-      </c>
-      <c r="O25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1683,11 +1640,8 @@
       <c r="G26" t="s">
         <v>72</v>
       </c>
-      <c r="K26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1710,31 +1664,31 @@
         <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1760,28 +1714,28 @@
         <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1807,28 +1761,28 @@
         <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1847,11 +1801,8 @@
       <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="K30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1871,28 +1822,28 @@
         <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s">
+        <v>141</v>
+      </c>
+      <c r="N31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" t="s">
         <v>145</v>
       </c>
-      <c r="N31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1917,11 +1868,8 @@
       <c r="H32" t="s">
         <v>95</v>
       </c>
-      <c r="K32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1946,11 +1894,8 @@
       <c r="H33" t="s">
         <v>96</v>
       </c>
-      <c r="K33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1969,11 +1914,8 @@
       <c r="G34" t="s">
         <v>79</v>
       </c>
-      <c r="K34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1992,11 +1934,8 @@
       <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="K35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2015,11 +1954,8 @@
       <c r="G36" t="s">
         <v>81</v>
       </c>
-      <c r="K36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2039,37 +1975,37 @@
         <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" t="s">
         <v>135</v>
       </c>
-      <c r="L37" t="s">
-        <v>136</v>
-      </c>
-      <c r="N37" t="s">
-        <v>137</v>
-      </c>
       <c r="O37" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O37"/>
+  <autoFilter ref="A1:O37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
+++ b/zib2017-2020/mapping/excel/LaboratoriumUitslag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789F786-B2CB-E945-B14F-E55998D5A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C08F04-F40B-A54B-8C42-F7D91315CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24820" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="24820" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$37</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="149">
   <si>
     <t>ZibName</t>
   </si>
@@ -409,15 +422,9 @@
     <t>Dataelement UitgevoerdDoor::Zorgaanbieder toe gevoegd.</t>
   </si>
   <si>
-    <t>VALUESET CHANGES</t>
-  </si>
-  <si>
     <t>SIMPLE PATCH CHANGE</t>
   </si>
   <si>
-    <t>CARDINALITY CHANGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TERMINOLOGY MAPPING CONCEPT CHANGE </t>
   </si>
   <si>
@@ -436,12 +443,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
-  </si>
-  <si>
-    <t>ZERO-TO-MANY TO ZERO-TO-ONE</t>
-  </si>
-  <si>
     <t>SCT DefintionCode  [blank] -&gt; [127454002 Device specimen]</t>
   </si>
   <si>
@@ -451,9 +452,6 @@
     <t>SCT DefintionCode  [118170007 Specimen source identity] -&gt; [127454002 Device specimen]</t>
   </si>
   <si>
-    <t>ZERO-TO-ONE TO ZERO-TO-MANY</t>
-  </si>
-  <si>
     <t>SCT DefintionCode  [127454002 Device specimen] -&gt; [blank]</t>
   </si>
   <si>
@@ -463,19 +461,28 @@
     <t>SCT DefintionCode  [127454002 Device specimen] -&gt; [118170007 Specimen source identity]</t>
   </si>
   <si>
-    <t>IF [blank] source-&gt;target ELSE [toon en stuur de relatie tussen de labuitslag en UitgevoerdDoor::Zorgaanbieder naar een 2017 ontvanger. Maak eventueel een zorgaanbieder instance aan als deze nog niet bestaat ]</t>
-  </si>
-  <si>
     <t>TestCodeLOINCCodelijst; TestCodeNHGCodelijst</t>
   </si>
   <si>
-    <t>codelist [MonsterAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst]</t>
-  </si>
-  <si>
-    <t>codelist [LocatieCodelijst]-&gt;[MonsterAnatomischeLocatieCodelijst]</t>
-  </si>
-  <si>
-    <t>codelist [LateraliteitCodelijst]-&gt;[LateraliteitCodelijst]</t>
+    <t>VALUESET ADDITION</t>
+  </si>
+  <si>
+    <t>CARDINALITY CHANGES (0..* to 0..1)</t>
+  </si>
+  <si>
+    <t>ALS [aantal &gt;1] DAN [doe iets] ANDERS source -&gt; target</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>new valueset [valueset name] added in [baseline 2020]</t>
+  </si>
+  <si>
+    <t>source -&gt; target</t>
+  </si>
+  <si>
+    <t>IF source &lt;&gt; [blank] THEN source -&gt; target=[non-zib item]</t>
   </si>
 </sst>
 </file>
@@ -874,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
         <v>107</v>
@@ -1127,16 +1134,19 @@
         <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" t="s">
         <v>134</v>
       </c>
-      <c r="M9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s">
-        <v>136</v>
+      <c r="O9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1277,13 +1287,13 @@
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1312,19 +1322,16 @@
         <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1359,19 +1366,19 @@
         <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1400,13 +1407,13 @@
         <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1435,13 +1442,13 @@
         <v>122</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1470,13 +1477,13 @@
         <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1577,13 +1584,13 @@
         <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1612,13 +1619,19 @@
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="M25" t="s">
+        <v>147</v>
       </c>
       <c r="N25" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1673,19 +1686,19 @@
         <v>126</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1720,19 +1733,19 @@
         <v>121</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" t="s">
         <v>136</v>
       </c>
-      <c r="M28" t="s">
-        <v>140</v>
-      </c>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1767,19 +1780,19 @@
         <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1828,19 +1841,19 @@
         <v>121</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1981,16 +1994,16 @@
         <v>127</v>
       </c>
       <c r="K37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" t="s">
         <v>133</v>
       </c>
-      <c r="L37" t="s">
-        <v>134</v>
-      </c>
-      <c r="N37" t="s">
-        <v>135</v>
-      </c>
       <c r="O37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
